--- a/ShopCart_Project_1/target/classes/com/shopcart/qa/testdata/ShopCart_TestData.xlsx
+++ b/ShopCart_Project_1/target/classes/com/shopcart/qa/testdata/ShopCart_TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddNewCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AddNewContact" sheetId="2" r:id="rId2"/>
+    <sheet name="AddNewTitle" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>emailid</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>ironman@marvel.com</t>
+  </si>
+  <si>
+    <t>I am Iron Man</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Er.</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
@@ -399,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -495,24 +522,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>